--- a/pred_ohlcv/54_21/2019-11-21 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 LBA ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-164957.5591</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-248959.3379</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-247816.0811</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-244719.7866</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-229117.4299</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-231789.0073</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-306953.3796</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-282581.9597</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-284243.4927</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-284213.4927</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-324213.4927</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-324183.4927</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-469827.0287</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-469827.0287</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-561906.8099000001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-561906.8099000001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-561906.8099000001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-561906.8099000001</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-561568.2802000002</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-561664.3223000002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-561664.3223000002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-520776.9589000002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-520361.5890000002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-575361.5890000002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-563132.3733000001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-563132.3733000001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-557637.0760000001</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-582539.0655000001</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-582201.0725000001</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-586962.2050000001</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-645418.7829</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-474635.6214999999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-474889.6214999999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-457411.3410999999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-457411.3410999999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-502537.1553999999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-502537.1553999999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-543236.6510999999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-542310.3067</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-542310.3067</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-542310.3067</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 LBA ohlcv.xlsx
@@ -1432,7 +1432,7 @@
         <v>-229117.4299</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-231789.0073</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-306953.3796</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-284243.4927</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-324213.4927</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-324183.4927</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-469827.0287</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-469827.0287</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-471359.664</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-561906.8099000001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-561906.8099000001</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-561906.8099000001</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-561664.3223000002</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-561664.3223000002</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-561664.3223000002</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-561664.3223000002</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-520776.9589000002</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-520361.5890000002</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-575361.5890000002</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-563132.3733000001</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-563132.3733000001</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-557637.0760000001</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-557637.0760000001</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-582539.0655000001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-582201.0725000001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-582201.0725000001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-586962.2050000001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-645418.7829</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-474635.6214999999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-474889.6214999999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-457411.3410999999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-457411.3410999999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-502537.1553999999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-502537.1553999999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-543236.6510999999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-542310.3067</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-542310.3067</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-542310.3067</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
